--- a/input/Расписание №10 Form.xlsx
+++ b/input/Расписание №10 Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB997B-5FA4-4109-8AD5-7C0CF18F6DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D59E1-EAAA-41BD-A9FB-4F70B762102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2124" windowWidth="19932" windowHeight="15156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40596" yWindow="9480" windowWidth="14532" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve"> #</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>group</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
   </si>
   <si>
     <t>Семинар</t>
@@ -515,7 +512,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,31 +566,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -601,28 +598,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="J3" s="10">
         <v>2</v>

--- a/input/Расписание №10 Form.xlsx
+++ b/input/Расписание №10 Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D59E1-EAAA-41BD-A9FB-4F70B762102E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C03C8B-3F0F-4DE5-AD27-96D66B46049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40596" yWindow="9480" windowWidth="14532" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38988" yWindow="12732" windowWidth="14532" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve"> #</t>
   </si>
@@ -512,7 +512,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,8 +565,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -597,8 +597,8 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
+      <c r="B3" s="9">
+        <v>1</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>

--- a/input/Расписание №10 Form.xlsx
+++ b/input/Расписание №10 Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C03C8B-3F0F-4DE5-AD27-96D66B46049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5AEA7-2A83-405A-951D-25D931EA816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38988" yWindow="12732" windowWidth="14532" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4344" yWindow="1320" windowWidth="18504" windowHeight="14292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Преподаватель 1</t>
   </si>
   <si>
-    <t>Корпус 1, Аудитория 3</t>
+    <t>Корпус 1, Аудитория 2</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input/Расписание №10 Form.xlsx
+++ b/input/Расписание №10 Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5AEA7-2A83-405A-951D-25D931EA816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE05F095-7D60-454A-9575-9041E5BB6DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="1320" windowWidth="18504" windowHeight="14292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="6360" windowWidth="20892" windowHeight="13188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve"> #</t>
   </si>
@@ -75,13 +75,16 @@
     <t>Корпус 1, Аудитория 1</t>
   </si>
   <si>
-    <t>1, 2</t>
-  </si>
-  <si>
     <t>Преподаватель 1</t>
   </si>
   <si>
     <t>Корпус 1, Аудитория 2</t>
+  </si>
+  <si>
+    <t>Дисциплина 2</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,24 +180,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,52 +519,52 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -565,91 +572,92 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>